--- a/Australia-ASX-Stock-Exchange.xlsx
+++ b/Australia-ASX-Stock-Exchange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\SQ\company name db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D6E1081-B973-49A4-9603-19B83A349D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E0579-B2B2-46EA-95ED-EBC73A8012D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{219FD736-485E-4A6A-AFBF-F33CDFBC5547}"/>
   </bookViews>
@@ -12979,13 +12979,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB48BFD-237E-4613-8655-3B023DE32BC3}">
   <dimension ref="A1:D2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A190" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
     <col min="2" max="2" width="29.21875" customWidth="1"/>
     <col min="3" max="3" width="39.109375" customWidth="1"/>
   </cols>
